--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Slamf6-Slamf6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Slamf6-Slamf6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -534,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.02093966666666667</v>
+        <v>0.01763466666666667</v>
       </c>
       <c r="H2">
-        <v>0.062819</v>
+        <v>0.052904</v>
       </c>
       <c r="I2">
-        <v>0.003821758428656758</v>
+        <v>0.002767006967100107</v>
       </c>
       <c r="J2">
-        <v>0.003821758428656757</v>
+        <v>0.002771918532924497</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.02093966666666667</v>
+        <v>0.01763466666666667</v>
       </c>
       <c r="N2">
-        <v>0.062819</v>
+        <v>0.052904</v>
       </c>
       <c r="O2">
-        <v>0.003821758428656758</v>
+        <v>0.002767006967100107</v>
       </c>
       <c r="P2">
-        <v>0.003821758428656757</v>
+        <v>0.002771918532924497</v>
       </c>
       <c r="Q2">
-        <v>0.0004384696401111111</v>
+        <v>0.0003109814684444444</v>
       </c>
       <c r="R2">
-        <v>0.003946226761</v>
+        <v>0.002798833216</v>
       </c>
       <c r="S2">
-        <v>1.460583748700897E-05</v>
+        <v>7.656327555980531E-06</v>
       </c>
       <c r="T2">
-        <v>1.460583748700896E-05</v>
+        <v>7.683532353170294E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -596,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.02093966666666667</v>
+        <v>0.01763466666666667</v>
       </c>
       <c r="H3">
-        <v>0.062819</v>
+        <v>0.052904</v>
       </c>
       <c r="I3">
-        <v>0.003821758428656758</v>
+        <v>0.002767006967100107</v>
       </c>
       <c r="J3">
-        <v>0.003821758428656757</v>
+        <v>0.002771918532924497</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,28 +617,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.09353433333333334</v>
+        <v>0.09353433333333333</v>
       </c>
       <c r="N3">
         <v>0.280603</v>
       </c>
       <c r="O3">
-        <v>0.01707121858603882</v>
+        <v>0.01467621457714334</v>
       </c>
       <c r="P3">
-        <v>0.01707121858603881</v>
+        <v>0.01470226553935832</v>
       </c>
       <c r="Q3">
-        <v>0.001958577761888889</v>
+        <v>0.001649446790222222</v>
       </c>
       <c r="R3">
-        <v>0.017627199857</v>
+        <v>0.014845021112</v>
       </c>
       <c r="S3">
-        <v>6.524207351863576E-05</v>
+        <v>4.060918798561177E-05</v>
       </c>
       <c r="T3">
-        <v>6.524207351863572E-05</v>
+        <v>4.075348232452449E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -658,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.02093966666666667</v>
+        <v>0.01763466666666667</v>
       </c>
       <c r="H4">
-        <v>0.062819</v>
+        <v>0.052904</v>
       </c>
       <c r="I4">
-        <v>0.003821758428656758</v>
+        <v>0.002767006967100107</v>
       </c>
       <c r="J4">
-        <v>0.003821758428656757</v>
+        <v>0.002771918532924497</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.749923</v>
+        <v>3.476241333333334</v>
       </c>
       <c r="N4">
-        <v>8.249769000000001</v>
+        <v>10.428724</v>
       </c>
       <c r="O4">
-        <v>0.5018963086044228</v>
+        <v>0.5454474513451554</v>
       </c>
       <c r="P4">
-        <v>0.5018963086044227</v>
+        <v>0.54641564589359</v>
       </c>
       <c r="Q4">
-        <v>0.057582470979</v>
+        <v>0.06130235716622223</v>
       </c>
       <c r="R4">
-        <v>0.5182422388110001</v>
+        <v>0.5517212144960001</v>
       </c>
       <c r="S4">
-        <v>0.001918126447720666</v>
+        <v>0.001509256898059041</v>
       </c>
       <c r="T4">
-        <v>0.001918126447720665</v>
+        <v>0.001514619655532351</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -720,60 +723,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.02093966666666667</v>
+        <v>0.01763466666666667</v>
       </c>
       <c r="H5">
-        <v>0.062819</v>
+        <v>0.052904</v>
       </c>
       <c r="I5">
-        <v>0.003821758428656758</v>
+        <v>0.002767006967100107</v>
       </c>
       <c r="J5">
-        <v>0.003821758428656757</v>
+        <v>0.002771918532924497</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>2.614669</v>
+        <v>0.033878</v>
       </c>
       <c r="N5">
-        <v>7.844007</v>
+        <v>0.067756</v>
       </c>
       <c r="O5">
-        <v>0.4772107143808817</v>
+        <v>0.005315703653679349</v>
       </c>
       <c r="P5">
-        <v>0.4772107143808816</v>
+        <v>0.003550092849630126</v>
       </c>
       <c r="Q5">
-        <v>0.05475029730366666</v>
+        <v>0.0005974272373333333</v>
       </c>
       <c r="R5">
-        <v>0.492752675733</v>
+        <v>0.003584563424</v>
       </c>
       <c r="S5">
-        <v>0.001823784069930447</v>
+        <v>1.470858904477025E-05</v>
       </c>
       <c r="T5">
-        <v>0.001823784069930446</v>
+        <v>9.840568163492483E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -782,46 +785,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.09353433333333334</v>
+        <v>0.01763466666666667</v>
       </c>
       <c r="H6">
-        <v>0.280603</v>
+        <v>0.052904</v>
       </c>
       <c r="I6">
-        <v>0.01707121858603882</v>
+        <v>0.002767006967100107</v>
       </c>
       <c r="J6">
-        <v>0.01707121858603881</v>
+        <v>0.002771918532924497</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.02093966666666667</v>
+        <v>2.751903666666667</v>
       </c>
       <c r="N6">
-        <v>0.062819</v>
+        <v>8.255711</v>
       </c>
       <c r="O6">
-        <v>0.003821758428656758</v>
+        <v>0.4317936234569218</v>
       </c>
       <c r="P6">
-        <v>0.003821758428656757</v>
+        <v>0.432560077184497</v>
       </c>
       <c r="Q6">
-        <v>0.001958577761888889</v>
+        <v>0.04852890386044444</v>
       </c>
       <c r="R6">
-        <v>0.017627199857</v>
+        <v>0.436760134744</v>
       </c>
       <c r="S6">
-        <v>6.524207351863576E-05</v>
+        <v>0.001194775964454703</v>
       </c>
       <c r="T6">
-        <v>6.524207351863572E-05</v>
+        <v>0.001199021294550958</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -844,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.09353433333333334</v>
+        <v>0.09353433333333333</v>
       </c>
       <c r="H7">
         <v>0.280603</v>
       </c>
       <c r="I7">
-        <v>0.01707121858603882</v>
+        <v>0.01467621457714334</v>
       </c>
       <c r="J7">
-        <v>0.01707121858603881</v>
+        <v>0.01470226553935832</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -862,28 +865,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.09353433333333334</v>
+        <v>0.01763466666666667</v>
       </c>
       <c r="N7">
-        <v>0.280603</v>
+        <v>0.052904</v>
       </c>
       <c r="O7">
-        <v>0.01707121858603882</v>
+        <v>0.002767006967100107</v>
       </c>
       <c r="P7">
-        <v>0.01707121858603881</v>
+        <v>0.002771918532924497</v>
       </c>
       <c r="Q7">
-        <v>0.008748671512111113</v>
+        <v>0.001649446790222222</v>
       </c>
       <c r="R7">
-        <v>0.07873804360900002</v>
+        <v>0.014845021112</v>
       </c>
       <c r="S7">
-        <v>0.0002914265040123171</v>
+        <v>4.060918798561177E-05</v>
       </c>
       <c r="T7">
-        <v>0.000291426504012317</v>
+        <v>4.075348232452449E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -891,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -906,46 +909,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.09353433333333334</v>
+        <v>0.09353433333333333</v>
       </c>
       <c r="H8">
         <v>0.280603</v>
       </c>
       <c r="I8">
-        <v>0.01707121858603882</v>
+        <v>0.01467621457714334</v>
       </c>
       <c r="J8">
-        <v>0.01707121858603881</v>
+        <v>0.01470226553935832</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>2.749923</v>
+        <v>0.09353433333333333</v>
       </c>
       <c r="N8">
-        <v>8.249769000000001</v>
+        <v>0.280603</v>
       </c>
       <c r="O8">
-        <v>0.5018963086044228</v>
+        <v>0.01467621457714334</v>
       </c>
       <c r="P8">
-        <v>0.5018963086044227</v>
+        <v>0.01470226553935832</v>
       </c>
       <c r="Q8">
-        <v>0.2572122145230001</v>
+        <v>0.00874867151211111</v>
       </c>
       <c r="R8">
-        <v>2.314909930707</v>
+        <v>0.078738043609</v>
       </c>
       <c r="S8">
-        <v>0.008567981591712097</v>
+        <v>0.0002153912743143547</v>
       </c>
       <c r="T8">
-        <v>0.008567981591712093</v>
+        <v>0.0002161566119898032</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -953,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -968,16 +971,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.09353433333333334</v>
+        <v>0.09353433333333333</v>
       </c>
       <c r="H9">
         <v>0.280603</v>
       </c>
       <c r="I9">
-        <v>0.01707121858603882</v>
+        <v>0.01467621457714334</v>
       </c>
       <c r="J9">
-        <v>0.01707121858603881</v>
+        <v>0.01470226553935832</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,152 +989,152 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.614669</v>
+        <v>3.476241333333334</v>
       </c>
       <c r="N9">
-        <v>7.844007</v>
+        <v>10.428724</v>
       </c>
       <c r="O9">
-        <v>0.4772107143808817</v>
+        <v>0.5454474513451554</v>
       </c>
       <c r="P9">
-        <v>0.4772107143808816</v>
+        <v>0.54641564589359</v>
       </c>
       <c r="Q9">
-        <v>0.2445613218023333</v>
+        <v>0.3251479156191112</v>
       </c>
       <c r="R9">
-        <v>2.201051896221</v>
+        <v>2.926331240572</v>
       </c>
       <c r="S9">
-        <v>0.00814656841679577</v>
+        <v>0.008005103836497452</v>
       </c>
       <c r="T9">
-        <v>0.008146568416795766</v>
+        <v>0.008033547920787547</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>2.749923</v>
+        <v>0.09353433333333333</v>
       </c>
       <c r="H10">
-        <v>8.249769000000001</v>
+        <v>0.280603</v>
       </c>
       <c r="I10">
-        <v>0.5018963086044228</v>
+        <v>0.01467621457714334</v>
       </c>
       <c r="J10">
-        <v>0.5018963086044227</v>
+        <v>0.01470226553935832</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.02093966666666667</v>
+        <v>0.033878</v>
       </c>
       <c r="N10">
-        <v>0.062819</v>
+        <v>0.067756</v>
       </c>
       <c r="O10">
-        <v>0.003821758428656758</v>
+        <v>0.005315703653679349</v>
       </c>
       <c r="P10">
-        <v>0.003821758428656757</v>
+        <v>0.003550092849630126</v>
       </c>
       <c r="Q10">
-        <v>0.057582470979</v>
+        <v>0.003168756144666666</v>
       </c>
       <c r="R10">
-        <v>0.5182422388110001</v>
+        <v>0.019012536868</v>
       </c>
       <c r="S10">
-        <v>0.001918126447720666</v>
+        <v>7.801440744990299E-05</v>
       </c>
       <c r="T10">
-        <v>0.001918126447720665</v>
+        <v>5.219440776463937E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.09353433333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.280603</v>
+      </c>
+      <c r="I11">
+        <v>0.01467621457714334</v>
+      </c>
+      <c r="J11">
+        <v>0.01470226553935832</v>
+      </c>
+      <c r="K11">
         <v>3</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>2.749923</v>
-      </c>
-      <c r="H11">
-        <v>8.249769000000001</v>
-      </c>
-      <c r="I11">
-        <v>0.5018963086044228</v>
-      </c>
-      <c r="J11">
-        <v>0.5018963086044227</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.09353433333333334</v>
+        <v>2.751903666666667</v>
       </c>
       <c r="N11">
-        <v>0.280603</v>
+        <v>8.255711</v>
       </c>
       <c r="O11">
-        <v>0.01707121858603882</v>
+        <v>0.4317936234569218</v>
       </c>
       <c r="P11">
-        <v>0.01707121858603881</v>
+        <v>0.432560077184497</v>
       </c>
       <c r="Q11">
-        <v>0.2572122145230001</v>
+        <v>0.2573974748592222</v>
       </c>
       <c r="R11">
-        <v>2.314909930707</v>
+        <v>2.316577273733</v>
       </c>
       <c r="S11">
-        <v>0.008567981591712097</v>
+        <v>0.006337095870896019</v>
       </c>
       <c r="T11">
-        <v>0.008567981591712093</v>
+        <v>0.006359613116491804</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1139,13 +1142,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1154,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.749923</v>
+        <v>3.476241333333334</v>
       </c>
       <c r="H12">
-        <v>8.249769000000001</v>
+        <v>10.428724</v>
       </c>
       <c r="I12">
-        <v>0.5018963086044228</v>
+        <v>0.5454474513451554</v>
       </c>
       <c r="J12">
-        <v>0.5018963086044227</v>
+        <v>0.54641564589359</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>2.749923</v>
+        <v>0.01763466666666667</v>
       </c>
       <c r="N12">
-        <v>8.249769000000001</v>
+        <v>0.052904</v>
       </c>
       <c r="O12">
-        <v>0.5018963086044228</v>
+        <v>0.002767006967100107</v>
       </c>
       <c r="P12">
-        <v>0.5018963086044227</v>
+        <v>0.002771918532924497</v>
       </c>
       <c r="Q12">
-        <v>7.562076505929002</v>
+        <v>0.06130235716622223</v>
       </c>
       <c r="R12">
-        <v>68.05868855336101</v>
+        <v>0.5517212144960001</v>
       </c>
       <c r="S12">
-        <v>0.251899904590746</v>
+        <v>0.001509256898059041</v>
       </c>
       <c r="T12">
-        <v>0.2518999045907459</v>
+        <v>0.001514619655532351</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1201,13 +1204,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1216,60 +1219,60 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.749923</v>
+        <v>3.476241333333334</v>
       </c>
       <c r="H13">
-        <v>8.249769000000001</v>
+        <v>10.428724</v>
       </c>
       <c r="I13">
-        <v>0.5018963086044228</v>
+        <v>0.5454474513451554</v>
       </c>
       <c r="J13">
-        <v>0.5018963086044227</v>
+        <v>0.54641564589359</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>2.614669</v>
+        <v>0.09353433333333333</v>
       </c>
       <c r="N13">
-        <v>7.844007</v>
+        <v>0.280603</v>
       </c>
       <c r="O13">
-        <v>0.4772107143808817</v>
+        <v>0.01467621457714334</v>
       </c>
       <c r="P13">
-        <v>0.4772107143808816</v>
+        <v>0.01470226553935832</v>
       </c>
       <c r="Q13">
-        <v>7.190138420487</v>
+        <v>0.3251479156191112</v>
       </c>
       <c r="R13">
-        <v>64.711245784383</v>
+        <v>2.926331240572</v>
       </c>
       <c r="S13">
-        <v>0.2395102959742441</v>
+        <v>0.008005103836497452</v>
       </c>
       <c r="T13">
-        <v>0.2395102959742439</v>
+        <v>0.008033547920787547</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1278,60 +1281,60 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.614669</v>
+        <v>3.476241333333334</v>
       </c>
       <c r="H14">
-        <v>7.844007</v>
+        <v>10.428724</v>
       </c>
       <c r="I14">
-        <v>0.4772107143808817</v>
+        <v>0.5454474513451554</v>
       </c>
       <c r="J14">
-        <v>0.4772107143808816</v>
+        <v>0.54641564589359</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.02093966666666667</v>
+        <v>3.476241333333334</v>
       </c>
       <c r="N14">
-        <v>0.062819</v>
+        <v>10.428724</v>
       </c>
       <c r="O14">
-        <v>0.003821758428656758</v>
+        <v>0.5454474513451554</v>
       </c>
       <c r="P14">
-        <v>0.003821758428656757</v>
+        <v>0.54641564589359</v>
       </c>
       <c r="Q14">
-        <v>0.05475029730366666</v>
+        <v>12.08425380757511</v>
       </c>
       <c r="R14">
-        <v>0.492752675733</v>
+        <v>108.758284268176</v>
       </c>
       <c r="S14">
-        <v>0.001823784069930447</v>
+        <v>0.2975129221789257</v>
       </c>
       <c r="T14">
-        <v>0.001823784069930446</v>
+        <v>0.2985700580773092</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1340,60 +1343,60 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.614669</v>
+        <v>3.476241333333334</v>
       </c>
       <c r="H15">
-        <v>7.844007</v>
+        <v>10.428724</v>
       </c>
       <c r="I15">
-        <v>0.4772107143808817</v>
+        <v>0.5454474513451554</v>
       </c>
       <c r="J15">
-        <v>0.4772107143808816</v>
+        <v>0.54641564589359</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.09353433333333334</v>
+        <v>0.033878</v>
       </c>
       <c r="N15">
-        <v>0.280603</v>
+        <v>0.067756</v>
       </c>
       <c r="O15">
-        <v>0.01707121858603882</v>
+        <v>0.005315703653679349</v>
       </c>
       <c r="P15">
-        <v>0.01707121858603881</v>
+        <v>0.003550092849630126</v>
       </c>
       <c r="Q15">
-        <v>0.2445613218023333</v>
+        <v>0.1177681038906667</v>
       </c>
       <c r="R15">
-        <v>2.201051896221</v>
+        <v>0.706608623344</v>
       </c>
       <c r="S15">
-        <v>0.00814656841679577</v>
+        <v>0.002899437010005531</v>
       </c>
       <c r="T15">
-        <v>0.008146568416795766</v>
+        <v>0.001939826277412861</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1402,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.614669</v>
+        <v>3.476241333333334</v>
       </c>
       <c r="H16">
-        <v>7.844007</v>
+        <v>10.428724</v>
       </c>
       <c r="I16">
-        <v>0.4772107143808817</v>
+        <v>0.5454474513451554</v>
       </c>
       <c r="J16">
-        <v>0.4772107143808816</v>
+        <v>0.54641564589359</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1420,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.749923</v>
+        <v>2.751903666666667</v>
       </c>
       <c r="N16">
-        <v>8.249769000000001</v>
+        <v>8.255711</v>
       </c>
       <c r="O16">
-        <v>0.5018963086044228</v>
+        <v>0.4317936234569218</v>
       </c>
       <c r="P16">
-        <v>0.5018963086044227</v>
+        <v>0.432560077184497</v>
       </c>
       <c r="Q16">
-        <v>7.190138420487</v>
+        <v>9.566281271418223</v>
       </c>
       <c r="R16">
-        <v>64.711245784383</v>
+        <v>86.096531442764</v>
       </c>
       <c r="S16">
-        <v>0.2395102959742441</v>
+        <v>0.2355207314216677</v>
       </c>
       <c r="T16">
-        <v>0.2395102959742439</v>
+        <v>0.2363575939625481</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1449,61 +1452,619 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>0.033878</v>
+      </c>
+      <c r="H17">
+        <v>0.067756</v>
+      </c>
+      <c r="I17">
+        <v>0.005315703653679349</v>
+      </c>
+      <c r="J17">
+        <v>0.003550092849630126</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.01763466666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.052904</v>
+      </c>
+      <c r="O17">
+        <v>0.002767006967100107</v>
+      </c>
+      <c r="P17">
+        <v>0.002771918532924497</v>
+      </c>
+      <c r="Q17">
+        <v>0.0005974272373333333</v>
+      </c>
+      <c r="R17">
+        <v>0.003584563424</v>
+      </c>
+      <c r="S17">
+        <v>1.470858904477025E-05</v>
+      </c>
+      <c r="T17">
+        <v>9.840568163492483E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>0.033878</v>
+      </c>
+      <c r="H18">
+        <v>0.067756</v>
+      </c>
+      <c r="I18">
+        <v>0.005315703653679349</v>
+      </c>
+      <c r="J18">
+        <v>0.003550092849630126</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.09353433333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.280603</v>
+      </c>
+      <c r="O18">
+        <v>0.01467621457714334</v>
+      </c>
+      <c r="P18">
+        <v>0.01470226553935832</v>
+      </c>
+      <c r="Q18">
+        <v>0.003168756144666666</v>
+      </c>
+      <c r="R18">
+        <v>0.019012536868</v>
+      </c>
+      <c r="S18">
+        <v>7.801440744990299E-05</v>
+      </c>
+      <c r="T18">
+        <v>5.219440776463937E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>0.033878</v>
+      </c>
+      <c r="H19">
+        <v>0.067756</v>
+      </c>
+      <c r="I19">
+        <v>0.005315703653679349</v>
+      </c>
+      <c r="J19">
+        <v>0.003550092849630126</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>3.476241333333334</v>
+      </c>
+      <c r="N19">
+        <v>10.428724</v>
+      </c>
+      <c r="O19">
+        <v>0.5454474513451554</v>
+      </c>
+      <c r="P19">
+        <v>0.54641564589359</v>
+      </c>
+      <c r="Q19">
+        <v>0.1177681038906667</v>
+      </c>
+      <c r="R19">
+        <v>0.706608623344</v>
+      </c>
+      <c r="S19">
+        <v>0.002899437010005531</v>
+      </c>
+      <c r="T19">
+        <v>0.001939826277412861</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+      <c r="G20">
+        <v>0.033878</v>
+      </c>
+      <c r="H20">
+        <v>0.067756</v>
+      </c>
+      <c r="I20">
+        <v>0.005315703653679349</v>
+      </c>
+      <c r="J20">
+        <v>0.003550092849630126</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.033878</v>
+      </c>
+      <c r="N20">
+        <v>0.067756</v>
+      </c>
+      <c r="O20">
+        <v>0.005315703653679349</v>
+      </c>
+      <c r="P20">
+        <v>0.003550092849630126</v>
+      </c>
+      <c r="Q20">
+        <v>0.001147718884</v>
+      </c>
+      <c r="R20">
+        <v>0.004590875536</v>
+      </c>
+      <c r="S20">
+        <v>2.825670533373998E-05</v>
+      </c>
+      <c r="T20">
+        <v>1.260315924099495E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>0.033878</v>
+      </c>
+      <c r="H21">
+        <v>0.067756</v>
+      </c>
+      <c r="I21">
+        <v>0.005315703653679349</v>
+      </c>
+      <c r="J21">
+        <v>0.003550092849630126</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.751903666666667</v>
+      </c>
+      <c r="N21">
+        <v>8.255711</v>
+      </c>
+      <c r="O21">
+        <v>0.4317936234569218</v>
+      </c>
+      <c r="P21">
+        <v>0.432560077184497</v>
+      </c>
+      <c r="Q21">
+        <v>0.09322899241933333</v>
+      </c>
+      <c r="R21">
+        <v>0.5593739545159999</v>
+      </c>
+      <c r="S21">
+        <v>0.002295286941845405</v>
+      </c>
+      <c r="T21">
+        <v>0.001535628437048138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="D17" t="s">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.751903666666667</v>
+      </c>
+      <c r="H22">
+        <v>8.255711</v>
+      </c>
+      <c r="I22">
+        <v>0.4317936234569218</v>
+      </c>
+      <c r="J22">
+        <v>0.432560077184497</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.01763466666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.052904</v>
+      </c>
+      <c r="O22">
+        <v>0.002767006967100107</v>
+      </c>
+      <c r="P22">
+        <v>0.002771918532924497</v>
+      </c>
+      <c r="Q22">
+        <v>0.04852890386044444</v>
+      </c>
+      <c r="R22">
+        <v>0.436760134744</v>
+      </c>
+      <c r="S22">
+        <v>0.001194775964454703</v>
+      </c>
+      <c r="T22">
+        <v>0.001199021294550958</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.751903666666667</v>
+      </c>
+      <c r="H23">
+        <v>8.255711</v>
+      </c>
+      <c r="I23">
+        <v>0.4317936234569218</v>
+      </c>
+      <c r="J23">
+        <v>0.432560077184497</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.09353433333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.280603</v>
+      </c>
+      <c r="O23">
+        <v>0.01467621457714334</v>
+      </c>
+      <c r="P23">
+        <v>0.01470226553935832</v>
+      </c>
+      <c r="Q23">
+        <v>0.2573974748592222</v>
+      </c>
+      <c r="R23">
+        <v>2.316577273733</v>
+      </c>
+      <c r="S23">
+        <v>0.006337095870896019</v>
+      </c>
+      <c r="T23">
+        <v>0.006359613116491804</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.751903666666667</v>
+      </c>
+      <c r="H24">
+        <v>8.255711</v>
+      </c>
+      <c r="I24">
+        <v>0.4317936234569218</v>
+      </c>
+      <c r="J24">
+        <v>0.432560077184497</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>3.476241333333334</v>
+      </c>
+      <c r="N24">
+        <v>10.428724</v>
+      </c>
+      <c r="O24">
+        <v>0.5454474513451554</v>
+      </c>
+      <c r="P24">
+        <v>0.54641564589359</v>
+      </c>
+      <c r="Q24">
+        <v>9.566281271418223</v>
+      </c>
+      <c r="R24">
+        <v>86.096531442764</v>
+      </c>
+      <c r="S24">
+        <v>0.2355207314216677</v>
+      </c>
+      <c r="T24">
+        <v>0.2363575939625481</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
+      <c r="E25">
         <v>3</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>2.614669</v>
-      </c>
-      <c r="H17">
-        <v>7.844007</v>
-      </c>
-      <c r="I17">
-        <v>0.4772107143808817</v>
-      </c>
-      <c r="J17">
-        <v>0.4772107143808816</v>
-      </c>
-      <c r="K17">
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.751903666666667</v>
+      </c>
+      <c r="H25">
+        <v>8.255711</v>
+      </c>
+      <c r="I25">
+        <v>0.4317936234569218</v>
+      </c>
+      <c r="J25">
+        <v>0.432560077184497</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <v>0.033878</v>
+      </c>
+      <c r="N25">
+        <v>0.067756</v>
+      </c>
+      <c r="O25">
+        <v>0.005315703653679349</v>
+      </c>
+      <c r="P25">
+        <v>0.003550092849630126</v>
+      </c>
+      <c r="Q25">
+        <v>0.09322899241933333</v>
+      </c>
+      <c r="R25">
+        <v>0.5593739545159999</v>
+      </c>
+      <c r="S25">
+        <v>0.002295286941845405</v>
+      </c>
+      <c r="T25">
+        <v>0.001535628437048138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
         <v>3</v>
       </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>2.614669</v>
-      </c>
-      <c r="N17">
-        <v>7.844007</v>
-      </c>
-      <c r="O17">
-        <v>0.4772107143808817</v>
-      </c>
-      <c r="P17">
-        <v>0.4772107143808816</v>
-      </c>
-      <c r="Q17">
-        <v>6.836493979560998</v>
-      </c>
-      <c r="R17">
-        <v>61.52844581604899</v>
-      </c>
-      <c r="S17">
-        <v>0.2277300659199114</v>
-      </c>
-      <c r="T17">
-        <v>0.2277300659199114</v>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.751903666666667</v>
+      </c>
+      <c r="H26">
+        <v>8.255711</v>
+      </c>
+      <c r="I26">
+        <v>0.4317936234569218</v>
+      </c>
+      <c r="J26">
+        <v>0.432560077184497</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.751903666666667</v>
+      </c>
+      <c r="N26">
+        <v>8.255711</v>
+      </c>
+      <c r="O26">
+        <v>0.4317936234569218</v>
+      </c>
+      <c r="P26">
+        <v>0.432560077184497</v>
+      </c>
+      <c r="Q26">
+        <v>7.572973790613445</v>
+      </c>
+      <c r="R26">
+        <v>68.156764115521</v>
+      </c>
+      <c r="S26">
+        <v>0.186445733258058</v>
+      </c>
+      <c r="T26">
+        <v>0.187108220373858</v>
       </c>
     </row>
   </sheetData>
